--- a/Pendulum General Notes.xlsx
+++ b/Pendulum General Notes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Github_Repos\Furuta-Pendulum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E908C9-BA32-44D2-AD8E-0FC1061E8F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530883C7-AACA-4E71-91C5-F0E37FF0D7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="4260" windowWidth="24540" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="4020" windowWidth="24540" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LED Driver" sheetId="1" r:id="rId1"/>
-    <sheet name="CAN Notes" sheetId="2" r:id="rId2"/>
+    <sheet name="Shunt Value Calculation" sheetId="3" r:id="rId2"/>
+    <sheet name="CAN Notes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>logic 1 high</t>
   </si>
@@ -121,6 +122,60 @@
   </si>
   <si>
     <t>rolling counter</t>
+  </si>
+  <si>
+    <t>10mOhm shunt</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>150ma q current measured</t>
+  </si>
+  <si>
+    <t>max 1 sensor curr</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volts </t>
+  </si>
+  <si>
+    <t>bits resolution</t>
+  </si>
+  <si>
+    <t>voltage at ADC pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gain </t>
+  </si>
+  <si>
+    <t>shunt resistance</t>
+  </si>
+  <si>
+    <t>V = I*R*Gain</t>
+  </si>
+  <si>
+    <t>I = V/(R*Gain)</t>
+  </si>
+  <si>
+    <t>intended max amperage reading</t>
+  </si>
+  <si>
+    <t>intended gain</t>
+  </si>
+  <si>
+    <t>R = V/(I*Gain)</t>
+  </si>
+  <si>
+    <t>max unidirectional voltage (w/ margin)</t>
+  </si>
+  <si>
+    <t>R = 100mOhm</t>
+  </si>
+  <si>
+    <t>Power = V*I</t>
   </si>
 </sst>
 </file>
@@ -156,9 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -692,6 +748,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FE3DEB-1503-471F-AAD5-9A844AF9773A}">
+  <dimension ref="B4:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <f>C11-C12</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <f>2^12</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <f>C14/C15*C13</f>
+        <v>0.1087646484375</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <f>C16/(C19*C18)</f>
+        <v>0.135955810546875</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <f>C29/(C27*C28)</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <f>(C29/C28)*C27</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0714417D-B69A-4E2E-80E2-B702A8231408}">
   <dimension ref="C3:D12"/>
   <sheetViews>

--- a/Pendulum General Notes.xlsx
+++ b/Pendulum General Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Github_Repos\Furuta-Pendulum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530883C7-AACA-4E71-91C5-F0E37FF0D7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4ED64A-362F-480B-B7E6-97BB29FFC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="4020" windowWidth="24540" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46455" yWindow="3870" windowWidth="24540" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LED Driver" sheetId="1" r:id="rId1"/>
@@ -236,16 +236,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>380208</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47354</xdr:rowOff>
+      <xdr:colOff>94458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -268,7 +268,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972050" y="1114425"/>
+          <a:off x="4686300" y="933450"/>
           <a:ext cx="6333333" cy="2171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FE3DEB-1503-471F-AAD5-9A844AF9773A}">
   <dimension ref="B4:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
